--- a/Assets/06.Table/HonorReward.xlsx
+++ b/Assets/06.Table/HonorReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B4316-9552-4118-8445-9A01790B8EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586E048C-CC3D-46C0-8FF3-6149E373F98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -572,9 +572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -612,7 +612,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -718,7 +718,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -860,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -868,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1559,7 +1559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B63" si="3">B45+100</f>
+        <f t="shared" ref="B46:B90" si="3">B45+100</f>
         <v>20498</v>
       </c>
       <c r="C46">
@@ -1821,6 +1821,411 @@
         <v>9039</v>
       </c>
       <c r="D63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="3"/>
+        <v>22298</v>
+      </c>
+      <c r="C64">
+        <v>9039</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="3"/>
+        <v>22398</v>
+      </c>
+      <c r="C65">
+        <v>9039</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="3"/>
+        <v>22498</v>
+      </c>
+      <c r="C66">
+        <v>9039</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>22598</v>
+      </c>
+      <c r="C67">
+        <v>9039</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>22698</v>
+      </c>
+      <c r="C68">
+        <v>9039</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>22798</v>
+      </c>
+      <c r="C69">
+        <v>9039</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>22898</v>
+      </c>
+      <c r="C70">
+        <v>9039</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>22998</v>
+      </c>
+      <c r="C71">
+        <v>9039</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>23098</v>
+      </c>
+      <c r="C72">
+        <v>9039</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>23198</v>
+      </c>
+      <c r="C73">
+        <v>9039</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>23298</v>
+      </c>
+      <c r="C74">
+        <v>9039</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>23398</v>
+      </c>
+      <c r="C75">
+        <v>9039</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>23498</v>
+      </c>
+      <c r="C76">
+        <v>9039</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>23598</v>
+      </c>
+      <c r="C77">
+        <v>9039</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>23698</v>
+      </c>
+      <c r="C78">
+        <v>9039</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>23798</v>
+      </c>
+      <c r="C79">
+        <v>9039</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>23898</v>
+      </c>
+      <c r="C80">
+        <v>9039</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>23998</v>
+      </c>
+      <c r="C81">
+        <v>9039</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>24098</v>
+      </c>
+      <c r="C82">
+        <v>9039</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>24198</v>
+      </c>
+      <c r="C83">
+        <v>9039</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>24298</v>
+      </c>
+      <c r="C84">
+        <v>9039</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>24398</v>
+      </c>
+      <c r="C85">
+        <v>9039</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>24498</v>
+      </c>
+      <c r="C86">
+        <v>9039</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>24598</v>
+      </c>
+      <c r="C87">
+        <v>9039</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>24698</v>
+      </c>
+      <c r="C88">
+        <v>9039</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>24798</v>
+      </c>
+      <c r="C89">
+        <v>9039</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>24898</v>
+      </c>
+      <c r="C90">
+        <v>9039</v>
+      </c>
+      <c r="D90" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/HonorReward.xlsx
+++ b/Assets/06.Table/HonorReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586E048C-CC3D-46C0-8FF3-6149E373F98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90930D7E-7F1A-4558-B040-8546B412FEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HonorReward" sheetId="1" r:id="rId1"/>
@@ -868,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1559,7 +1559,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B90" si="3">B45+100</f>
+        <f t="shared" ref="B46:B101" si="3">B45+100</f>
         <v>20498</v>
       </c>
       <c r="C46">
@@ -2226,6 +2226,171 @@
         <v>9039</v>
       </c>
       <c r="D90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>24998</v>
+      </c>
+      <c r="C91">
+        <v>9039</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>25098</v>
+      </c>
+      <c r="C92">
+        <v>9039</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>25198</v>
+      </c>
+      <c r="C93">
+        <v>9039</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>25298</v>
+      </c>
+      <c r="C94">
+        <v>9039</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>25398</v>
+      </c>
+      <c r="C95">
+        <v>9039</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>25498</v>
+      </c>
+      <c r="C96">
+        <v>9039</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>25598</v>
+      </c>
+      <c r="C97">
+        <v>9039</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>25698</v>
+      </c>
+      <c r="C98">
+        <v>9039</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>25798</v>
+      </c>
+      <c r="C99">
+        <v>9039</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>25898</v>
+      </c>
+      <c r="C100">
+        <v>9039</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="3"/>
+        <v>25998</v>
+      </c>
+      <c r="C101">
+        <v>9039</v>
+      </c>
+      <c r="D101" s="1">
         <v>1</v>
       </c>
     </row>
